--- a/access/reports_class/myreport.xlsx
+++ b/access/reports_class/myreport.xlsx
@@ -423,16 +423,16 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>-0.399239482433899</v>
+        <v>0.6591133488849069</v>
       </c>
       <c r="C4">
-        <v>1.817335980694252</v>
+        <v>1.758595492963332</v>
       </c>
       <c r="D4">
-        <v>0.01271688373327112</v>
+        <v>0.2116407643200444</v>
       </c>
       <c r="E4">
-        <v>0.9304551594126902</v>
+        <v>0.3818138628445958</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -440,16 +440,16 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>-0.05397789162525355</v>
+        <v>1.04935639856805</v>
       </c>
       <c r="C5">
-        <v>0.007457946366245085</v>
+        <v>1.0540941488638</v>
       </c>
       <c r="D5">
-        <v>0.2219054308570702</v>
+        <v>0.0297495480679162</v>
       </c>
       <c r="E5">
-        <v>-1.320798925979599</v>
+        <v>3.134108597688114</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -457,16 +457,16 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>-0.3178190207920821</v>
+        <v>1.65379883426597</v>
       </c>
       <c r="C6">
-        <v>-0.6541711570605897</v>
+        <v>-0.740605851295322</v>
       </c>
       <c r="D6">
-        <v>-0.0351922790158684</v>
+        <v>-0.9468918271739655</v>
       </c>
       <c r="E6">
-        <v>0.08364635725850397</v>
+        <v>1.350446378056616</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -474,16 +474,16 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.5044814837187188</v>
+        <v>0.02674837807576286</v>
       </c>
       <c r="C7">
-        <v>2.542432760442935</v>
+        <v>0.5532999006530959</v>
       </c>
       <c r="D7">
-        <v>1.571280690636144</v>
+        <v>0.483985995328118</v>
       </c>
       <c r="E7">
-        <v>0.08041247365641065</v>
+        <v>1.468272518186249</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -491,16 +491,16 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>-0.5568897766111027</v>
+        <v>0.1579579455650856</v>
       </c>
       <c r="C8">
-        <v>-0.3119074936844199</v>
+        <v>0.6654296632113611</v>
       </c>
       <c r="D8">
-        <v>-0.4087342486625601</v>
+        <v>-0.273014630495681</v>
       </c>
       <c r="E8">
-        <v>1.27141808822687</v>
+        <v>0.1705714575257804</v>
       </c>
     </row>
   </sheetData>

--- a/access/reports_class/myreport.xlsx
+++ b/access/reports_class/myreport.xlsx
@@ -423,16 +423,16 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.6591133488849069</v>
+        <v>0.3144078713268895</v>
       </c>
       <c r="C4">
-        <v>1.758595492963332</v>
+        <v>0.6222043085192662</v>
       </c>
       <c r="D4">
-        <v>0.2116407643200444</v>
+        <v>1.30589901365039</v>
       </c>
       <c r="E4">
-        <v>0.3818138628445958</v>
+        <v>0.6641362491237239</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -440,16 +440,16 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1.04935639856805</v>
+        <v>-1.211413007902572</v>
       </c>
       <c r="C5">
-        <v>1.0540941488638</v>
+        <v>0.5929716511918293</v>
       </c>
       <c r="D5">
-        <v>0.0297495480679162</v>
+        <v>0.1475802506118135</v>
       </c>
       <c r="E5">
-        <v>3.134108597688114</v>
+        <v>-1.282372269443943</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -457,16 +457,16 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1.65379883426597</v>
+        <v>-0.2055217517160851</v>
       </c>
       <c r="C6">
-        <v>-0.740605851295322</v>
+        <v>0.1585165383476775</v>
       </c>
       <c r="D6">
-        <v>-0.9468918271739655</v>
+        <v>-0.4272525662965678</v>
       </c>
       <c r="E6">
-        <v>1.350446378056616</v>
+        <v>-0.3867867274643426</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -474,16 +474,16 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.02674837807576286</v>
+        <v>0.2894321852095841</v>
       </c>
       <c r="C7">
-        <v>0.5532999006530959</v>
+        <v>-0.3849132836788145</v>
       </c>
       <c r="D7">
-        <v>0.483985995328118</v>
+        <v>0.1725502782827051</v>
       </c>
       <c r="E7">
-        <v>1.468272518186249</v>
+        <v>-0.2546019266732649</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -491,16 +491,16 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.1579579455650856</v>
+        <v>-1.240919359052044</v>
       </c>
       <c r="C8">
-        <v>0.6654296632113611</v>
+        <v>0.9060282532893892</v>
       </c>
       <c r="D8">
-        <v>-0.273014630495681</v>
+        <v>-1.019253356312959</v>
       </c>
       <c r="E8">
-        <v>0.1705714575257804</v>
+        <v>0.2282378729866466</v>
       </c>
     </row>
   </sheetData>

--- a/access/reports_class/myreport.xlsx
+++ b/access/reports_class/myreport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,45 +9,42 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>three</t>
-  </si>
-  <si>
-    <t>four</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+  <si>
+    <t>PROM_ID</t>
+  </si>
+  <si>
+    <t>PROM_TYPE_ID</t>
+  </si>
+  <si>
+    <t>PROM_CREATED_BY</t>
+  </si>
+  <si>
+    <t>PROM_CREATED_ON</t>
+  </si>
+  <si>
+    <t>PROM_LINE_NO</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>660</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +107,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -188,6 +190,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -222,6 +225,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,14 +401,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,92 +427,33 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0.3144078713268895</v>
-      </c>
-      <c r="C4">
-        <v>0.6222043085192662</v>
-      </c>
-      <c r="D4">
-        <v>1.30589901365039</v>
-      </c>
-      <c r="E4">
-        <v>0.6641362491237239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>-1.211413007902572</v>
-      </c>
-      <c r="C5">
-        <v>0.5929716511918293</v>
-      </c>
-      <c r="D5">
-        <v>0.1475802506118135</v>
-      </c>
-      <c r="E5">
-        <v>-1.282372269443943</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>-0.2055217517160851</v>
-      </c>
-      <c r="C6">
-        <v>0.1585165383476775</v>
-      </c>
-      <c r="D6">
-        <v>-0.4272525662965678</v>
-      </c>
-      <c r="E6">
-        <v>-0.3867867274643426</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
         <v>7</v>
-      </c>
-      <c r="B7">
-        <v>0.2894321852095841</v>
-      </c>
-      <c r="C7">
-        <v>-0.3849132836788145</v>
-      </c>
-      <c r="D7">
-        <v>0.1725502782827051</v>
-      </c>
-      <c r="E7">
-        <v>-0.2546019266732649</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>-1.240919359052044</v>
-      </c>
-      <c r="C8">
-        <v>0.9060282532893892</v>
-      </c>
-      <c r="D8">
-        <v>-1.019253356312959</v>
-      </c>
-      <c r="E8">
-        <v>0.2282378729866466</v>
       </c>
     </row>
   </sheetData>

--- a/access/reports_class/myreport.xlsx
+++ b/access/reports_class/myreport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>PROM_ID</t>
   </si>
@@ -34,17 +34,26 @@
     <t>30</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>120</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>660</t>
+  </si>
+  <si>
+    <t>550</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,11 +116,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -190,7 +194,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -225,7 +228,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -401,22 +403,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -444,7 +438,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -453,7 +447,47 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
